--- a/results/many_different/three_way_quicksort.xlsx
+++ b/results/many_different/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_different/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{97CBF4B7-7634-4F0B-8E03-C0ABAB1CDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47ABA468-97D9-4816-ACAB-E285390AD765}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{97CBF4B7-7634-4F0B-8E03-C0ABAB1CDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8607E3CA-14DD-4C09-BF4C-B33B6C1DF742}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="4650" windowWidth="33270" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_way_quicksort" sheetId="1" r:id="rId1"/>
@@ -593,19 +593,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -631,19 +625,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -674,19 +662,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -785,19 +767,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -896,19 +872,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1018,10 +988,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1049,10 +1020,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1072,9 +1044,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1088,8 +1060,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1118,9 +1091,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1135,10 +1108,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1148,13 +1122,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> in ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1171,10 +1140,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1204,8 +1174,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1245,8 +1216,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1270,28 +1242,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1334,19 +1295,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1372,19 +1327,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1415,19 +1364,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1526,19 +1469,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1648,10 +1585,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1679,10 +1617,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1702,9 +1641,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1718,8 +1657,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1748,9 +1688,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1765,10 +1705,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1778,13 +1719,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1801,10 +1737,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1834,8 +1771,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1875,8 +1813,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1900,28 +1839,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2024,33 +1952,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2058,34 +1988,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2094,8 +2016,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2114,6 +2037,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2122,35 +2053,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2162,29 +2103,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2202,18 +2145,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2223,20 +2169,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2250,14 +2196,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2271,8 +2217,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2286,6 +2233,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2297,9 +2250,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2314,13 +2267,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2332,14 +2286,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2351,13 +2305,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2366,13 +2321,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2380,7 +2336,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2393,21 +2349,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2415,14 +2361,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2434,19 +2380,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2462,6 +2401,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2470,8 +2410,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2481,7 +2422,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2489,9 +2430,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2502,8 +2443,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2515,38 +2457,46 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2554,34 +2504,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2590,8 +2532,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2610,6 +2553,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2618,35 +2569,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2658,29 +2619,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2698,18 +2661,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2719,20 +2685,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2746,14 +2712,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2767,8 +2733,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2782,6 +2749,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2793,9 +2766,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2810,13 +2783,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2828,14 +2802,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2847,13 +2821,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2862,13 +2837,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2876,7 +2852,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2889,21 +2865,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2911,14 +2877,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2930,19 +2896,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2958,6 +2917,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2966,8 +2926,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2977,7 +2938,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2985,9 +2946,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2998,8 +2959,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3011,6 +2973,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3056,15 +3024,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3396,7 +3364,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/many_different/three_way_quicksort.xlsx
+++ b/results/many_different/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_different/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{97CBF4B7-7634-4F0B-8E03-C0ABAB1CDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8607E3CA-14DD-4C09-BF4C-B33B6C1DF742}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{97CBF4B7-7634-4F0B-8E03-C0ABAB1CDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD27355C-143E-4926-B1CC-C233D8D91F9A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="4455" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_way_quicksort" sheetId="1" r:id="rId1"/>
@@ -3368,6 +3368,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
